--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -37,7 +37,7 @@
     <t>Float32</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:53.1801855Z</t>
+    <t>2021-12-07T03:07:07.7893624Z</t>
   </si>
   <si>
     <t>None</t>
@@ -49,19 +49,19 @@
     <t>BA:CONC.1</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:53.3103115Z</t>
+    <t>2021-12-07T03:07:07.9505156Z</t>
   </si>
   <si>
     <t>BA:LEVEL.1</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:53.4404107Z</t>
+    <t>2021-12-07T03:07:09.8799386Z</t>
   </si>
   <si>
     <t>BA:TEMP.1</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:53.5865785Z</t>
+    <t>2021-12-07T03:07:10.0080614Z</t>
   </si>
   <si>
     <t>CDEP158</t>
@@ -70,13 +70,13 @@
     <t>Int32</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:53.7166772Z</t>
+    <t>2021-12-07T03:07:10.1141635Z</t>
   </si>
   <si>
     <t>CDEP1589</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:53.8347892Z</t>
+    <t>2021-12-07T03:07:10.2532965Z</t>
   </si>
   <si>
     <t>CDM158</t>
@@ -85,49 +85,49 @@
     <t>Digital</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:53.952905Z</t>
+    <t>2021-12-07T03:07:10.3604243Z</t>
   </si>
   <si>
     <t>CDM1589</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:54.1060505Z</t>
+    <t>2021-12-07T03:07:10.4785145Z</t>
   </si>
   <si>
     <t>CDT158</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:54.245512Z</t>
+    <t>2021-12-07T03:07:10.5916212Z</t>
   </si>
   <si>
     <t>CDT158-1</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:54.3756367Z</t>
+    <t>2021-12-07T03:07:10.6987495Z</t>
   </si>
   <si>
     <t>SINUSOID</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:54.5127682Z</t>
+    <t>2021-12-07T03:07:10.8228425Z</t>
   </si>
   <si>
     <t>SINUSOID-1</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:54.6348861Z</t>
+    <t>2021-12-07T03:07:10.9419567Z</t>
   </si>
   <si>
     <t>SINUSOIDU</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:54.7700135Z</t>
+    <t>2021-12-07T03:07:11.0640737Z</t>
   </si>
   <si>
     <t>SINUSOIDU-1</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:54.8861249Z</t>
+    <t>2021-12-07T03:07:11.1881927Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Device Status</t>
@@ -136,373 +136,373 @@
     <t>String</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:55.0202543Z</t>
+    <t>2021-12-07T03:07:11.3143136Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Heartbeat</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:55.1403686Z</t>
+    <t>2021-12-07T03:07:11.4354302Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Interface Point Count</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:55.24845Z</t>
+    <t>2021-12-07T03:07:11.5535677Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.IO Rate</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:55.3846078Z</t>
+    <t>2021-12-07T03:07:11.6946783Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Message Count</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:55.5047179Z</t>
+    <t>2021-12-07T03:07:11.8097886Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Output Bad Value Rate</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:55.6358453Z</t>
+    <t>2021-12-07T03:07:11.9249011Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Output Rate</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:55.7569597Z</t>
+    <t>2021-12-07T03:07:12.0430126Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.sc1</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:55.8940928Z</t>
+    <t>2021-12-07T03:07:12.1551201Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.sc2</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:56.0322283Z</t>
+    <t>2021-12-07T03:07:14.4613578Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class Bad Value Rate.sc0</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:56.1643263Z</t>
+    <t>2021-12-07T03:07:14.583474Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class Bad Value Rate.sc1</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:56.2954768Z</t>
+    <t>2021-12-07T03:07:14.7105699Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class Bad Value Rate.sc2</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:56.4306059Z</t>
+    <t>2021-12-07T03:07:14.8217997Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class Device Scan Time.sc1</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:56.5526999Z</t>
+    <t>2021-12-07T03:07:14.9399159Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class Device Scan Time.sc2</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:56.6688347Z</t>
+    <t>2021-12-07T03:07:15.061006Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class Information</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:56.7959557Z</t>
+    <t>2021-12-07T03:07:15.1781149Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class IO Rate.sc0</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:56.9146403Z</t>
+    <t>2021-12-07T03:07:15.3082392Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class IO Rate.sc1</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:57.0357555Z</t>
+    <t>2021-12-07T03:07:15.4203509Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class IO Rate.sc2</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:57.2429546Z</t>
+    <t>2021-12-07T03:07:15.5344595Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class Point Count.sc0</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:57.3640681Z</t>
+    <t>2021-12-07T03:07:15.6545733Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class Point Count.sc1</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:57.4907817Z</t>
+    <t>2021-12-07T03:07:15.7767139Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class Point Count.sc2</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:57.6078973Z</t>
+    <t>2021-12-07T03:07:15.8968055Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class Scan Count.sc0</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:57.7340153Z</t>
+    <t>2021-12-07T03:07:16.0149226Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class Scan Count.sc1</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:57.8681434Z</t>
+    <t>2021-12-07T03:07:16.1470493Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class Scan Count.sc2</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:57.9952657Z</t>
+    <t>2021-12-07T03:07:16.2691663Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class Scan Time.sc1</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:58.1424059Z</t>
+    <t>2021-12-07T03:07:16.3902824Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class Scan Time.sc2</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:58.2785565Z</t>
+    <t>2021-12-07T03:07:16.5054005Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class Scans Skipped.sc0</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:58.4016544Z</t>
+    <t>2021-12-07T03:07:16.6194966Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class Scans Skipped.sc1</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:58.5457939Z</t>
+    <t>2021-12-07T03:07:16.7476186Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Scan Class Scans Skipped.sc2</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:58.6729149Z</t>
+    <t>2021-12-07T03:07:16.8657566Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Trigger Bad Value Rate</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:58.8000368Z</t>
+    <t>2021-12-07T03:07:16.9758417Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.random1.Trigger Rate</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:58.9061381Z</t>
+    <t>2021-12-07T03:07:17.0929505Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Device Status</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:59.0353293Z</t>
+    <t>2021-12-07T03:07:17.2020607Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Heartbeat</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:59.1624733Z</t>
+    <t>2021-12-07T03:07:17.3131868Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Interface Point Count</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:59.2695576Z</t>
+    <t>2021-12-07T03:07:17.4172648Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.IO Rate</t>
   </si>
   <si>
-    <t>2021-12-07T02:30:59.393695Z</t>
+    <t>2021-12-07T03:07:17.5774175Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Message Count</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:00.4166518Z</t>
+    <t>2021-12-07T03:07:17.6985362Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Output Bad Value Rate</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:00.5347902Z</t>
+    <t>2021-12-07T03:07:17.8226769Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Output Rate</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:00.6558832Z</t>
+    <t>2021-12-07T03:07:17.9477952Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.sc1</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:00.7860315Z</t>
+    <t>2021-12-07T03:07:18.0658862Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.sc2</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:00.9752132Z</t>
+    <t>2021-12-07T03:07:18.1870262Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class Bad Value Rate.sc0</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:01.0892987Z</t>
+    <t>2021-12-07T03:07:18.3121427Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class Bad Value Rate.sc1</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:01.2154192Z</t>
+    <t>2021-12-07T03:07:18.4372644Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class Bad Value Rate.sc2</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:01.3345334Z</t>
+    <t>2021-12-07T03:07:18.553377Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class Device Scan Time.sc1</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:01.4536476Z</t>
+    <t>2021-12-07T03:07:18.6865021Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class Device Scan Time.sc2</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:01.5927827Z</t>
+    <t>2021-12-07T03:07:18.8136256Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class Information</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:01.7099176Z</t>
+    <t>2021-12-07T03:07:18.9387456Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class IO Rate.sc0</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:01.8179969Z</t>
+    <t>2021-12-07T03:07:19.0488494Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class IO Rate.sc1</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:01.9361084Z</t>
+    <t>2021-12-07T03:07:19.1839546Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class IO Rate.sc2</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:02.0572237Z</t>
+    <t>2021-12-07T03:07:19.2980657Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class Point Count.sc0</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:02.1793441Z</t>
+    <t>2021-12-07T03:07:19.4151784Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class Point Count.sc1</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:02.2954529Z</t>
+    <t>2021-12-07T03:07:19.5242813Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class Point Count.sc2</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:02.4135683Z</t>
+    <t>2021-12-07T03:07:19.6364144Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class Scan Count.sc0</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:02.5416907Z</t>
+    <t>2021-12-07T03:07:19.7486042Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class Scan Count.sc1</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:02.6598039Z</t>
+    <t>2021-12-07T03:07:19.8587115Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class Scan Count.sc2</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:02.7849243Z</t>
+    <t>2021-12-07T03:07:19.975822Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class Scan Time.sc1</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:02.9050368Z</t>
+    <t>2021-12-07T03:07:20.1049471Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class Scan Time.sc2</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:03.0111646Z</t>
+    <t>2021-12-07T03:07:20.2190573Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class Scans Skipped.sc0</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:03.1242491Z</t>
+    <t>2021-12-07T03:07:20.3381724Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class Scans Skipped.sc1</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:03.2443668Z</t>
+    <t>2021-12-07T03:07:20.454308Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Scan Class Scans Skipped.sc2</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:03.3614787Z</t>
+    <t>2021-12-07T03:07:20.6094307Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Trigger Bad Value Rate</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:03.4780743Z</t>
+    <t>2021-12-07T03:07:20.7315482Z</t>
   </si>
   <si>
     <t>sy.st.WIN-F9KROVHMQ74.rmp_sk1.Trigger Rate</t>
   </si>
   <si>
-    <t>2021-12-07T02:31:03.5951861Z</t>
+    <t>2021-12-07T03:07:20.8486601Z</t>
   </si>
 </sst>
 </file>
